--- a/toybox/src/main/resources/doc/02. 프로그램목록 정의서 v1.0.xlsx
+++ b/toybox/src/main/resources/doc/02. 프로그램목록 정의서 v1.0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="75">
   <si>
     <t>No.</t>
   </si>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>Pro_SRV_0003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 대여요청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -315,6 +311,14 @@
   </si>
   <si>
     <t>Pro_MGR_0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 대여신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 대여신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +757,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -804,13 +808,13 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.4">
@@ -858,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -937,14 +941,14 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>29</v>
@@ -980,10 +984,10 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>30</v>
@@ -1008,24 +1012,24 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>4</v>
@@ -1034,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="4">
-        <v>43349</v>
+        <v>43352</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>40</v>
@@ -1048,23 +1052,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -1073,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="4">
-        <v>43349</v>
+        <v>43352</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>40</v>
@@ -1082,28 +1086,28 @@
         <v>43352</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -1125,156 +1129,156 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="C10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
         <v>43349</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="4">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
         <v>43349</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>67</v>
+      <c r="L11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="4">
+        <v>43352</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4">
-        <v>43352</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="4">
-        <v>43352</v>
+      <c r="J12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="13">
+        <v>43349</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4">
-        <v>43352</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="4">
-        <v>43352</v>
+      <c r="J13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="13">
+        <v>43349</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="41.4" x14ac:dyDescent="0.4">
@@ -1288,17 +1292,17 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1606,7 +1610,11 @@
       <c r="M31" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M31"/>
+  <autoFilter ref="B1:M31">
+    <sortState ref="B2:M31">
+      <sortCondition descending="1" ref="B1:B31"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
